--- a/Data/RealtimeCommercialNowcasts.xlsx
+++ b/Data/RealtimeCommercialNowcasts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amartinez/DRIVEAU/Research/DamageNowcasts/Data/IndividualModelAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DRIVE1/BACKUP/Research/DamageNowcasts/ReplicationPackage/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2ED7E8-EEA9-7F40-AB78-39AF3AD78AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AB0CE3-D953-F942-B594-F457396A26A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="20980" firstSheet="43" activeTab="62" xr2:uid="{CE4A8037-E3FD-3948-AF92-B7C82989C500}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="36000" windowHeight="20980" firstSheet="25" activeTab="42" xr2:uid="{CE4A8037-E3FD-3948-AF92-B7C82989C500}"/>
   </bookViews>
   <sheets>
     <sheet name="AL012001" sheetId="43" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="136">
   <si>
     <t>Claudette</t>
   </si>
@@ -16197,7 +16197,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K39"/>
+      <selection activeCell="B3" sqref="B3:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17830,10 +17830,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A24" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17872,7 +17872,747 @@
         <v>490000000</v>
       </c>
       <c r="E2" s="4">
-        <f>D2</f>
+        <f t="shared" ref="E2:E38" si="0">D2</f>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <f>B2+1</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C39" si="1">C2+1</f>
+        <v>38982</v>
+      </c>
+      <c r="D3" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B39" si="2">B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="1"/>
+        <v>38983</v>
+      </c>
+      <c r="D4" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>38984</v>
+      </c>
+      <c r="D5" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>38985</v>
+      </c>
+      <c r="D6" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>38986</v>
+      </c>
+      <c r="D7" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>38987</v>
+      </c>
+      <c r="D8" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>38988</v>
+      </c>
+      <c r="D9" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>38989</v>
+      </c>
+      <c r="D10" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>38990</v>
+      </c>
+      <c r="D11" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>38991</v>
+      </c>
+      <c r="D12" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>38992</v>
+      </c>
+      <c r="D13" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>38993</v>
+      </c>
+      <c r="D14" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>38994</v>
+      </c>
+      <c r="D15" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>38995</v>
+      </c>
+      <c r="D16" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>38996</v>
+      </c>
+      <c r="D17" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>38997</v>
+      </c>
+      <c r="D18" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>38998</v>
+      </c>
+      <c r="D19" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>38999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
+        <v>39000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
+        <v>39001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
+        <v>39002</v>
+      </c>
+      <c r="D23" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>39003</v>
+      </c>
+      <c r="D24" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
+        <v>39004</v>
+      </c>
+      <c r="D25" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
+        <v>39005</v>
+      </c>
+      <c r="D26" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="1"/>
+        <v>39006</v>
+      </c>
+      <c r="D27" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="1"/>
+        <v>39007</v>
+      </c>
+      <c r="D28" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="1"/>
+        <v>39008</v>
+      </c>
+      <c r="D29" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="1"/>
+        <v>39009</v>
+      </c>
+      <c r="D30" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="1"/>
+        <v>39010</v>
+      </c>
+      <c r="D31" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="1"/>
+        <v>39011</v>
+      </c>
+      <c r="D32" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="1"/>
+        <v>39012</v>
+      </c>
+      <c r="D33" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="1"/>
+        <v>39013</v>
+      </c>
+      <c r="D34" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="1"/>
+        <v>39014</v>
+      </c>
+      <c r="D35" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="1"/>
+        <v>39015</v>
+      </c>
+      <c r="D36" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="1"/>
+        <v>39016</v>
+      </c>
+      <c r="D37" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="1"/>
+        <v>39017</v>
+      </c>
+      <c r="D38" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>490000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <f>C38+1</f>
+        <v>39018</v>
+      </c>
+      <c r="D39" s="4">
+        <v>490000000</v>
+      </c>
+      <c r="E39" s="4">
+        <f>D39</f>
         <v>490000000</v>
       </c>
     </row>
@@ -34878,7 +35618,7 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -57653,7 +58393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC659FBC-C776-1B4D-BE8A-62914E95BC3E}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
